--- a/medicine/Psychotrope/Saint-émilion-grand-cru/Saint-émilion-grand-cru.xlsx
+++ b/medicine/Psychotrope/Saint-émilion-grand-cru/Saint-émilion-grand-cru.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saint-%C3%A9milion-grand-cru</t>
+          <t>Saint-émilion-grand-cru</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le saint-émilion grand cru est un vin rouge d'appellation d'origine contrôlée produit sur une partie des neuf communes de l'appellation saint-émilion. L'appellation fait partie du vignoble du Libournais, une des subdivisions du vignoble de Bordeaux.
-Il existe en fait deux AOC dans la région de Saint-Émilion : d'une part l'AOC saint-émilion, et par ailleurs l'AOC saint-émilion grand cru. La différence entre les deux n'est pas géographique, elles couvrent la même aire d'appellation. La différence est liée à des conditions plus strictes : pour bénéficier de l'appellation saint-émilion grand cru, il faut un rendement limité à 40 hl/ha et un élevage de 12 mois minimum[2].
-La production annuelle est de 154 000 hl en 2020[3].
+Il existe en fait deux AOC dans la région de Saint-Émilion : d'une part l'AOC saint-émilion, et par ailleurs l'AOC saint-émilion grand cru. La différence entre les deux n'est pas géographique, elles couvrent la même aire d'appellation. La différence est liée à des conditions plus strictes : pour bénéficier de l'appellation saint-émilion grand cru, il faut un rendement limité à 40 hl/ha et un élevage de 12 mois minimum.
+La production annuelle est de 154 000 hl en 2020.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Saint-%C3%A9milion-grand-cru</t>
+          <t>Saint-émilion-grand-cru</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,12 @@
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Saint-Émilion, Saint-Christophe-des-Bardes, Saint-Hippolyte, Saint-Étienne-de-Lisse, Saint-Laurent-des-Combes, Saint-Pey-d’Armens, Saint-Sulpice-de-Faleyrens, Vignonet, et une partie de la commune de Libourne[1].
+Saint-Émilion, Saint-Christophe-des-Bardes, Saint-Hippolyte, Saint-Étienne-de-Lisse, Saint-Laurent-des-Combes, Saint-Pey-d’Armens, Saint-Sulpice-de-Faleyrens, Vignonet, et une partie de la commune de Libourne.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Saint-%C3%A9milion-grand-cru</t>
+          <t>Saint-émilion-grand-cru</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
